--- a/info/metricas/NN/RELU/NN8.xlsx
+++ b/info/metricas/NN/RELU/NN8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7866638872755841</v>
+        <v>0.7975336080983083</v>
       </c>
       <c r="C2" t="n">
-        <v>79462.33651445572</v>
+        <v>74027.52749578452</v>
       </c>
       <c r="D2" t="n">
-        <v>180.1307627889097</v>
+        <v>182.3462807748976</v>
       </c>
       <c r="E2" t="n">
-        <v>104.8487014770508</v>
+        <v>111.8386599731446</v>
       </c>
       <c r="F2" t="n">
-        <v>4578383.597805719</v>
+        <v>927048.4914595794</v>
       </c>
       <c r="G2" t="n">
-        <v>2756.658701171875</v>
+        <v>2105.7840625</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7866921024395513</v>
+        <v>0.7977613660964864</v>
       </c>
       <c r="I2" t="n">
-        <v>6.128233897814459e+16</v>
+        <v>7.60958536358773e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>-595394.3359767406</v>
+        <v>-56584.92498463995</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7929124437245703</v>
+        <v>0.7640860103390483</v>
       </c>
       <c r="C3" t="n">
-        <v>76847.91419498355</v>
+        <v>84268.12606444072</v>
       </c>
       <c r="D3" t="n">
-        <v>181.0175501102056</v>
+        <v>182.2291131997727</v>
       </c>
       <c r="E3" t="n">
-        <v>105.0653225708008</v>
+        <v>112.1713659667969</v>
       </c>
       <c r="F3" t="n">
-        <v>4600923.071151095</v>
+        <v>926452.8115076446</v>
       </c>
       <c r="G3" t="n">
-        <v>3308.68326171875</v>
+        <v>3175.604736328125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.792957374065265</v>
+        <v>0.7640868231818982</v>
       </c>
       <c r="I3" t="n">
-        <v>6.079832987338834e+16</v>
+        <v>5.710641570336684e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>-492441.9249961097</v>
+        <v>-139632.4877349089</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7988326584613827</v>
+      </c>
+      <c r="C4" t="n">
+        <v>76361.19521757234</v>
+      </c>
+      <c r="D4" t="n">
+        <v>176.2120591059039</v>
+      </c>
+      <c r="E4" t="n">
+        <v>106.8753601074219</v>
+      </c>
+      <c r="F4" t="n">
+        <v>895862.1084944153</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2128.324951171875</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.798929438540829</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.806943816252694e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-107750.9971651413</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8055076112208659</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75544.20181969479</v>
+      </c>
+      <c r="D5" t="n">
+        <v>177.4373681779774</v>
+      </c>
+      <c r="E5" t="n">
+        <v>104.2667102050781</v>
+      </c>
+      <c r="F5" t="n">
+        <v>902091.5798168373</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2089.150390625</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8055182909231654</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.506030943468616e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-109291.9076519714</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8148985407765034</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68997.08547115042</v>
+      </c>
+      <c r="D6" t="n">
+        <v>172.9388739195551</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100.73552734375</v>
+      </c>
+      <c r="F6" t="n">
+        <v>879048.2961330987</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1826.911987304688</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8151252031902062</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.023812067519682e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-119988.8622919656</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8097310799988684</v>
+      </c>
+      <c r="C7" t="n">
+        <v>71865.50821464375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>176.7527878175841</v>
+      </c>
+      <c r="E7" t="n">
+        <v>107.3937451171874</v>
+      </c>
+      <c r="F7" t="n">
+        <v>898434.4204767799</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1967.548950195312</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8097313860952176</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.825167779598243e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-119622.9678391506</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7942301843486301</v>
+      </c>
+      <c r="C8" t="n">
+        <v>77887.23482421058</v>
+      </c>
+      <c r="D8" t="n">
+        <v>182.0063690834714</v>
+      </c>
+      <c r="E8" t="n">
+        <v>108.87630859375</v>
+      </c>
+      <c r="F8" t="n">
+        <v>925138.3740512849</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2052.4736328125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7942308208976645</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.196605397448902e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-115397.5108730688</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8032515286021753</v>
+      </c>
+      <c r="C9" t="n">
+        <v>73666.95772101305</v>
+      </c>
+      <c r="D9" t="n">
+        <v>172.815572402398</v>
+      </c>
+      <c r="E9" t="n">
+        <v>99.48963928222656</v>
+      </c>
+      <c r="F9" t="n">
+        <v>878421.5545213891</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2565.4366796875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8034040590186241</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.882229217388882e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-139035.3717172518</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8000016874185387</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71032.32815091879</v>
+      </c>
+      <c r="D10" t="n">
+        <v>175.0217362358447</v>
+      </c>
+      <c r="E10" t="n">
+        <v>103.4552819824219</v>
+      </c>
+      <c r="F10" t="n">
+        <v>889635.4852867986</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2180.9482421875</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8001082541126705</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.359828366401997e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-97611.06601867397</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7844691945290296</v>
+      </c>
+      <c r="C11" t="n">
+        <v>79283.48026292659</v>
+      </c>
+      <c r="D11" t="n">
+        <v>180.7302961574219</v>
+      </c>
+      <c r="E11" t="n">
+        <v>108.6974868774414</v>
+      </c>
+      <c r="F11" t="n">
+        <v>918652.0953681755</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2444.25634765625</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7847991589713262</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.735069816355952e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-97743.2352431341</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU8</t>
         </is>
